--- a/data/RRST_DataDictionary_FINAL.xlsx
+++ b/data/RRST_DataDictionary_FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataschastoffel/Documents/GitHub/interoception_NS/data/processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nataschastoffel/Documents/GitHub/RRST_FND/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{D93A560F-BAF1-A043-83D7-FBAC842063BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC6D7F5D-75AA-4A93-8178-9A70F926ACA7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1711E8-7220-6942-808F-FB64E23B7F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35800" yWindow="500" windowWidth="35080" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29960" yWindow="-2460" windowWidth="29680" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt 1 - RRST_DataDictionary_2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="211">
   <si>
     <t>Variable / Field Name</t>
   </si>
@@ -120,16 +120,10 @@
     <t>[home_pre_arm_1][pat_cont]</t>
   </si>
   <si>
-    <t>medication</t>
-  </si>
-  <si>
     <t>medical_history</t>
   </si>
   <si>
     <t>binary</t>
-  </si>
-  <si>
-    <t>Does participant take any medication (regularly)?, 1=yes, 0 = no</t>
   </si>
   <si>
     <t>bmi</t>
@@ -388,18 +382,6 @@
     <t>[study_visit_arm_1][cgi_1]</t>
   </si>
   <si>
-    <t>rrst</t>
-  </si>
-  <si>
-    <t>Interoceptive Tasks</t>
-  </si>
-  <si>
-    <t>yesno</t>
-  </si>
-  <si>
-    <t>RRST completed</t>
-  </si>
-  <si>
     <t>rrst_sensitivity</t>
   </si>
   <si>
@@ -563,9 +545,6 @@
     <t>manually categorized from medical_history file</t>
   </si>
   <si>
-    <t>manual categorization intake of any other medication (muscle relaxants, anti-allergy etc), 1=yes, 0 = no</t>
-  </si>
-  <si>
     <t>smoke</t>
   </si>
   <si>
@@ -575,12 +554,6 @@
     <t>1=yes, 0=no</t>
   </si>
   <si>
-    <t>alcohol</t>
-  </si>
-  <si>
-    <t>Does participant drink alcohol (regularly)?</t>
-  </si>
-  <si>
     <t>drugs</t>
   </si>
   <si>
@@ -633,13 +606,121 @@
   </si>
   <si>
     <t>extracted from Matlab scritp; metascore per participant</t>
+  </si>
+  <si>
+    <t>pain_other</t>
+  </si>
+  <si>
+    <t>pain_antiepi</t>
+  </si>
+  <si>
+    <t>pain_morph_opio</t>
+  </si>
+  <si>
+    <t>psychotropic_antidep</t>
+  </si>
+  <si>
+    <t>psychotropic_neurolep</t>
+  </si>
+  <si>
+    <t>psychotropic_other</t>
+  </si>
+  <si>
+    <t>sleep_benzo</t>
+  </si>
+  <si>
+    <t>sleep_other</t>
+  </si>
+  <si>
+    <t>duration_months</t>
+  </si>
+  <si>
+    <t>motor_gw_cc</t>
+  </si>
+  <si>
+    <t>motor_strength</t>
+  </si>
+  <si>
+    <t>motor_signs</t>
+  </si>
+  <si>
+    <t>sens_signs</t>
+  </si>
+  <si>
+    <t>seizures_number</t>
+  </si>
+  <si>
+    <t>sum_positive_signs</t>
+  </si>
+  <si>
+    <t>sum_severity</t>
+  </si>
+  <si>
+    <t>manual categorization intake of any other pain medication (not antiinflamatory, opiod/morphine, antiepileptic etc), 1=yes, 0 = no</t>
+  </si>
+  <si>
+    <t>manual categorization intake of any antiepileptical pain medication, 1=yes, 0 = no</t>
+  </si>
+  <si>
+    <t>manual categorization intake of any opiod/morphine medication, 1=yes, 0 = no</t>
+  </si>
+  <si>
+    <t>manual categorization intake of any antidepressants medication, 1=yes, 0 = no</t>
+  </si>
+  <si>
+    <t>manual categorization intake of any neuroleptic medication, 1=yes, 0 = no</t>
+  </si>
+  <si>
+    <t>manual categorization intake of any psychottropic medication, 1=yes, 0 = no</t>
+  </si>
+  <si>
+    <t>manual categorization intake of any sleep medication (Benzos), 1=yes, 0 = no</t>
+  </si>
+  <si>
+    <t>manual categorization intake of any other sleep medication (melatonin etc), 1=yes, 0 = no</t>
+  </si>
+  <si>
+    <t>calculation symptom start until date of study visit</t>
+  </si>
+  <si>
+    <t>numer</t>
+  </si>
+  <si>
+    <t>duration of symptoms in months</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>sum score of give way weakness and co-contraction</t>
+  </si>
+  <si>
+    <t>11muscle tests per side; if there is a co-contraction (yes=1, no=0) and give-way-weakness (yes=1, no=0) for all these tests, max score of 44</t>
+  </si>
+  <si>
+    <t>11 muscle tests per side; rating of motor strnegth 5=normal, 0=no movement at all, max score 110 (indicating complete paralysis)</t>
+  </si>
+  <si>
+    <t>testing the positive signes; may score of 17 indicating presence of all 17 positive signs</t>
+  </si>
+  <si>
+    <t>testing hyposensitivity; max score of 5 (indicating one side is completely hyposensitive)</t>
+  </si>
+  <si>
+    <t>numer of seizures in the last month</t>
+  </si>
+  <si>
+    <t>sum score of all positive signes (motor_gw_cc + motor_signs + sens_signs)</t>
+  </si>
+  <si>
+    <t>sum score of severity rating (motor_strength + seizures_number)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1995,25 +2076,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="107" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="107" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="88" style="1" customWidth="1"/>
-    <col min="6" max="6" width="122.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.28515625" style="1"/>
+    <col min="6" max="6" width="122.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32.1" customHeight="1">
+    <row r="3" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -2067,7 +2148,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="32.1" customHeight="1">
+    <row r="4" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
@@ -2087,7 +2168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -2105,7 +2186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2123,7 +2204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.1" customHeight="1">
+    <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
@@ -2141,177 +2222,179 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32.1" customHeight="1">
+    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10" t="s">
+      <c r="E9" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="32.1" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="16" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="44.1" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="32.1" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="32.1" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="56.1" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="F15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="44.1" customHeight="1">
-      <c r="A14" s="12" t="s">
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="44.1" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="44.1" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="44.1" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -2321,15 +2404,15 @@
         <v>8</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="44.1" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -2339,15 +2422,15 @@
         <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="44.1" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -2357,15 +2440,15 @@
         <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="44.1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -2375,15 +2458,15 @@
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="44.1" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -2393,15 +2476,15 @@
         <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="32.1" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -2411,205 +2494,207 @@
         <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="56.1" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="44.1" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="5" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="44.1" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="F27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="44.1" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="F28" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="32.1" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="F30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="4" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="12" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="12" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="44.1" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -2619,15 +2704,15 @@
         <v>8</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -2637,15 +2722,15 @@
         <v>8</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -2655,15 +2740,15 @@
         <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -2673,15 +2758,15 @@
         <v>8</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="44.1" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -2691,15 +2776,15 @@
         <v>8</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="32.1" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -2709,385 +2794,585 @@
         <v>8</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="2" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="51" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="32.1" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="32.1" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="E44" s="10" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="18"/>
+        <v>176</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="D45" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="18"/>
+        <v>177</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="D46" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="12" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="D52" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="E52" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="C60:C65"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
